--- a/codigo/datasets/datasets_aumentados/logs/pcsmote/por_muestras/log_pcsmote_x_muestra_heart_D75_R50_PPproporcion.xlsx
+++ b/codigo/datasets/datasets_aumentados/logs/pcsmote/por_muestras/log_pcsmote_x_muestra_heart_D75_R50_PPproporcion.xlsx
@@ -657,7 +657,7 @@
       <c r="Y2" t="inlineStr"/>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>2025-11-12T07:24:49.616081</t>
+          <t>2025-11-13T06:53:09.901470</t>
         </is>
       </c>
     </row>
@@ -747,7 +747,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>2025-11-12T07:24:49.616081</t>
+          <t>2025-11-13T06:53:09.901470</t>
         </is>
       </c>
     </row>
@@ -837,7 +837,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>2025-11-12T07:24:49.616081</t>
+          <t>2025-11-13T06:53:09.902467</t>
         </is>
       </c>
     </row>
@@ -927,7 +927,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>2025-11-12T07:24:49.616081</t>
+          <t>2025-11-13T06:53:09.902797</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>2025-11-12T07:24:49.616081</t>
+          <t>2025-11-13T06:53:09.902797</t>
         </is>
       </c>
     </row>
@@ -1107,7 +1107,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>2025-11-12T07:24:49.616081</t>
+          <t>2025-11-13T06:53:09.903314</t>
         </is>
       </c>
     </row>
@@ -1197,7 +1197,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>2025-11-12T07:24:49.616081</t>
+          <t>2025-11-13T06:53:09.903314</t>
         </is>
       </c>
     </row>
@@ -1287,7 +1287,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>2025-11-12T07:24:49.616081</t>
+          <t>2025-11-13T06:53:09.903314</t>
         </is>
       </c>
     </row>
@@ -1377,7 +1377,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>2025-11-12T07:24:49.616081</t>
+          <t>2025-11-13T06:53:09.903314</t>
         </is>
       </c>
     </row>
@@ -1463,7 +1463,7 @@
       <c r="Y11" t="inlineStr"/>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>2025-11-12T07:24:49.616081</t>
+          <t>2025-11-13T06:53:09.904338</t>
         </is>
       </c>
     </row>
@@ -1549,7 +1549,7 @@
       <c r="Y12" t="inlineStr"/>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>2025-11-12T07:24:49.616081</t>
+          <t>2025-11-13T06:53:09.904338</t>
         </is>
       </c>
     </row>
@@ -1639,7 +1639,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>2025-11-12T07:24:49.616081</t>
+          <t>2025-11-13T06:53:09.904338</t>
         </is>
       </c>
     </row>
@@ -1729,7 +1729,7 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>2025-11-12T07:24:49.616081</t>
+          <t>2025-11-13T06:53:09.904338</t>
         </is>
       </c>
     </row>
@@ -1819,7 +1819,7 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>2025-11-12T07:24:49.624603</t>
+          <t>2025-11-13T06:53:09.904338</t>
         </is>
       </c>
     </row>
@@ -1905,7 +1905,7 @@
       <c r="Y16" t="inlineStr"/>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>2025-11-12T07:24:49.624603</t>
+          <t>2025-11-13T06:53:09.904338</t>
         </is>
       </c>
     </row>
@@ -1995,7 +1995,7 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>2025-11-12T07:24:49.624603</t>
+          <t>2025-11-13T06:53:09.904338</t>
         </is>
       </c>
     </row>
@@ -2081,7 +2081,7 @@
       <c r="Y18" t="inlineStr"/>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>2025-11-12T07:24:49.624603</t>
+          <t>2025-11-13T06:53:09.904338</t>
         </is>
       </c>
     </row>
@@ -2171,7 +2171,7 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>2025-11-12T07:24:49.624603</t>
+          <t>2025-11-13T06:53:09.904338</t>
         </is>
       </c>
     </row>
@@ -2261,7 +2261,7 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>2025-11-12T07:24:49.624603</t>
+          <t>2025-11-13T06:53:09.905335</t>
         </is>
       </c>
     </row>
@@ -2351,7 +2351,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>2025-11-12T07:24:49.624603</t>
+          <t>2025-11-13T06:53:09.905335</t>
         </is>
       </c>
     </row>
@@ -2437,7 +2437,7 @@
       <c r="Y22" t="inlineStr"/>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>2025-11-12T07:24:49.624603</t>
+          <t>2025-11-13T06:53:09.905335</t>
         </is>
       </c>
     </row>
@@ -2527,7 +2527,7 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>2025-11-12T07:24:49.624603</t>
+          <t>2025-11-13T06:53:09.905335</t>
         </is>
       </c>
     </row>
@@ -2617,7 +2617,7 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>2025-11-12T07:24:49.624603</t>
+          <t>2025-11-13T06:53:09.905335</t>
         </is>
       </c>
     </row>
@@ -2703,7 +2703,7 @@
       <c r="Y25" t="inlineStr"/>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>2025-11-12T07:24:49.624603</t>
+          <t>2025-11-13T06:53:09.905335</t>
         </is>
       </c>
     </row>
@@ -2793,7 +2793,7 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>2025-11-12T07:24:49.624603</t>
+          <t>2025-11-13T06:53:09.905335</t>
         </is>
       </c>
     </row>
@@ -2879,7 +2879,7 @@
       <c r="Y27" t="inlineStr"/>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>2025-11-12T07:24:49.624603</t>
+          <t>2025-11-13T06:53:09.905335</t>
         </is>
       </c>
     </row>
@@ -2965,7 +2965,7 @@
       <c r="Y28" t="inlineStr"/>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>2025-11-12T07:24:49.624603</t>
+          <t>2025-11-13T06:53:09.905335</t>
         </is>
       </c>
     </row>
@@ -3055,7 +3055,7 @@
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>2025-11-12T07:24:49.624603</t>
+          <t>2025-11-13T06:53:09.905335</t>
         </is>
       </c>
     </row>
@@ -3145,7 +3145,7 @@
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>2025-11-12T07:24:49.624603</t>
+          <t>2025-11-13T06:53:09.906334</t>
         </is>
       </c>
     </row>
@@ -3235,7 +3235,7 @@
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>2025-11-12T07:24:49.624603</t>
+          <t>2025-11-13T06:53:09.906334</t>
         </is>
       </c>
     </row>
@@ -3325,7 +3325,7 @@
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>2025-11-12T07:24:49.624603</t>
+          <t>2025-11-13T06:53:09.906334</t>
         </is>
       </c>
     </row>
@@ -3415,7 +3415,7 @@
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>2025-11-12T07:24:49.624603</t>
+          <t>2025-11-13T06:53:09.906334</t>
         </is>
       </c>
     </row>
@@ -3505,7 +3505,7 @@
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>2025-11-12T07:24:49.624603</t>
+          <t>2025-11-13T06:53:09.906334</t>
         </is>
       </c>
     </row>
@@ -3591,7 +3591,7 @@
       <c r="Y35" t="inlineStr"/>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>2025-11-12T07:24:49.624603</t>
+          <t>2025-11-13T06:53:09.906334</t>
         </is>
       </c>
     </row>
@@ -3681,7 +3681,7 @@
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>2025-11-12T07:24:49.624603</t>
+          <t>2025-11-13T06:53:09.906334</t>
         </is>
       </c>
     </row>
@@ -3771,7 +3771,7 @@
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>2025-11-12T07:24:49.624603</t>
+          <t>2025-11-13T06:53:09.906334</t>
         </is>
       </c>
     </row>
@@ -3857,7 +3857,7 @@
       <c r="Y38" t="inlineStr"/>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>2025-11-12T07:24:49.624603</t>
+          <t>2025-11-13T06:53:09.906334</t>
         </is>
       </c>
     </row>
@@ -3943,7 +3943,7 @@
       <c r="Y39" t="inlineStr"/>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>2025-11-12T07:24:49.624603</t>
+          <t>2025-11-13T06:53:09.906334</t>
         </is>
       </c>
     </row>
@@ -4033,7 +4033,7 @@
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>2025-11-12T07:24:49.624603</t>
+          <t>2025-11-13T06:53:09.907336</t>
         </is>
       </c>
     </row>
@@ -4123,7 +4123,7 @@
       </c>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>2025-11-12T07:24:49.631806</t>
+          <t>2025-11-13T06:53:09.907506</t>
         </is>
       </c>
     </row>
@@ -4209,7 +4209,7 @@
       <c r="Y42" t="inlineStr"/>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>2025-11-12T07:24:49.632324</t>
+          <t>2025-11-13T06:53:09.907811</t>
         </is>
       </c>
     </row>
@@ -4299,7 +4299,7 @@
       </c>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>2025-11-12T07:24:49.632324</t>
+          <t>2025-11-13T06:53:09.907811</t>
         </is>
       </c>
     </row>
@@ -4389,7 +4389,7 @@
       </c>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>2025-11-12T07:24:49.632324</t>
+          <t>2025-11-13T06:53:09.907811</t>
         </is>
       </c>
     </row>
@@ -4479,7 +4479,7 @@
       </c>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>2025-11-12T07:24:49.633341</t>
+          <t>2025-11-13T06:53:09.907811</t>
         </is>
       </c>
     </row>
@@ -4569,7 +4569,7 @@
       </c>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>2025-11-12T07:24:50.014326</t>
+          <t>2025-11-13T06:53:10.096781</t>
         </is>
       </c>
     </row>
@@ -4659,7 +4659,7 @@
       </c>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>2025-11-12T07:24:50.014326</t>
+          <t>2025-11-13T06:53:10.096781</t>
         </is>
       </c>
     </row>
@@ -4749,7 +4749,7 @@
       </c>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>2025-11-12T07:24:50.014326</t>
+          <t>2025-11-13T06:53:10.096781</t>
         </is>
       </c>
     </row>
@@ -4839,7 +4839,7 @@
       </c>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>2025-11-12T07:24:50.014326</t>
+          <t>2025-11-13T06:53:10.096781</t>
         </is>
       </c>
     </row>
@@ -4929,7 +4929,7 @@
       </c>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>2025-11-12T07:24:50.014326</t>
+          <t>2025-11-13T06:53:10.096781</t>
         </is>
       </c>
     </row>
@@ -5019,7 +5019,7 @@
       </c>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>2025-11-12T07:24:50.014326</t>
+          <t>2025-11-13T06:53:10.097777</t>
         </is>
       </c>
     </row>
@@ -5109,7 +5109,7 @@
       </c>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>2025-11-12T07:24:50.014326</t>
+          <t>2025-11-13T06:53:10.097777</t>
         </is>
       </c>
     </row>
@@ -5199,7 +5199,7 @@
       </c>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>2025-11-12T07:24:50.014326</t>
+          <t>2025-11-13T06:53:10.097777</t>
         </is>
       </c>
     </row>
@@ -5289,7 +5289,7 @@
       </c>
       <c r="Z54" t="inlineStr">
         <is>
-          <t>2025-11-12T07:24:50.014326</t>
+          <t>2025-11-13T06:53:10.097777</t>
         </is>
       </c>
     </row>
@@ -5379,7 +5379,7 @@
       </c>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>2025-11-12T07:24:50.014326</t>
+          <t>2025-11-13T06:53:10.097777</t>
         </is>
       </c>
     </row>
@@ -5465,7 +5465,7 @@
       <c r="Y56" t="inlineStr"/>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>2025-11-12T07:24:50.014326</t>
+          <t>2025-11-13T06:53:10.098853</t>
         </is>
       </c>
     </row>
@@ -5555,7 +5555,7 @@
       </c>
       <c r="Z57" t="inlineStr">
         <is>
-          <t>2025-11-12T07:24:50.014326</t>
+          <t>2025-11-13T06:53:10.099278</t>
         </is>
       </c>
     </row>
@@ -5645,7 +5645,7 @@
       </c>
       <c r="Z58" t="inlineStr">
         <is>
-          <t>2025-11-12T07:24:50.014326</t>
+          <t>2025-11-13T06:53:10.099278</t>
         </is>
       </c>
     </row>
@@ -5731,7 +5731,7 @@
       <c r="Y59" t="inlineStr"/>
       <c r="Z59" t="inlineStr">
         <is>
-          <t>2025-11-12T07:24:50.014326</t>
+          <t>2025-11-13T06:53:10.099278</t>
         </is>
       </c>
     </row>
@@ -5821,7 +5821,7 @@
       </c>
       <c r="Z60" t="inlineStr">
         <is>
-          <t>2025-11-12T07:24:50.014326</t>
+          <t>2025-11-13T06:53:10.099278</t>
         </is>
       </c>
     </row>
@@ -5907,7 +5907,7 @@
       <c r="Y61" t="inlineStr"/>
       <c r="Z61" t="inlineStr">
         <is>
-          <t>2025-11-12T07:24:50.014326</t>
+          <t>2025-11-13T06:53:10.099278</t>
         </is>
       </c>
     </row>
@@ -5997,7 +5997,7 @@
       </c>
       <c r="Z62" t="inlineStr">
         <is>
-          <t>2025-11-12T07:24:50.014326</t>
+          <t>2025-11-13T06:53:10.099278</t>
         </is>
       </c>
     </row>
@@ -6087,7 +6087,7 @@
       </c>
       <c r="Z63" t="inlineStr">
         <is>
-          <t>2025-11-12T07:24:50.014326</t>
+          <t>2025-11-13T06:53:10.100286</t>
         </is>
       </c>
     </row>
@@ -6177,7 +6177,7 @@
       </c>
       <c r="Z64" t="inlineStr">
         <is>
-          <t>2025-11-12T07:24:50.014326</t>
+          <t>2025-11-13T06:53:10.100286</t>
         </is>
       </c>
     </row>
@@ -6267,7 +6267,7 @@
       </c>
       <c r="Z65" t="inlineStr">
         <is>
-          <t>2025-11-12T07:24:50.014326</t>
+          <t>2025-11-13T06:53:10.100286</t>
         </is>
       </c>
     </row>
@@ -6357,7 +6357,7 @@
       </c>
       <c r="Z66" t="inlineStr">
         <is>
-          <t>2025-11-12T07:24:50.014326</t>
+          <t>2025-11-13T06:53:10.100286</t>
         </is>
       </c>
     </row>
@@ -6447,7 +6447,7 @@
       </c>
       <c r="Z67" t="inlineStr">
         <is>
-          <t>2025-11-12T07:24:50.014326</t>
+          <t>2025-11-13T06:53:10.100286</t>
         </is>
       </c>
     </row>
@@ -6537,7 +6537,7 @@
       </c>
       <c r="Z68" t="inlineStr">
         <is>
-          <t>2025-11-12T07:24:50.014326</t>
+          <t>2025-11-13T06:53:10.100286</t>
         </is>
       </c>
     </row>
@@ -6627,7 +6627,7 @@
       </c>
       <c r="Z69" t="inlineStr">
         <is>
-          <t>2025-11-12T07:24:50.014326</t>
+          <t>2025-11-13T06:53:10.100286</t>
         </is>
       </c>
     </row>
@@ -6713,7 +6713,7 @@
       <c r="Y70" t="inlineStr"/>
       <c r="Z70" t="inlineStr">
         <is>
-          <t>2025-11-12T07:24:50.014326</t>
+          <t>2025-11-13T06:53:10.101284</t>
         </is>
       </c>
     </row>
@@ -6803,7 +6803,7 @@
       </c>
       <c r="Z71" t="inlineStr">
         <is>
-          <t>2025-11-12T07:24:50.014326</t>
+          <t>2025-11-13T06:53:10.101284</t>
         </is>
       </c>
     </row>
@@ -6893,7 +6893,7 @@
       </c>
       <c r="Z72" t="inlineStr">
         <is>
-          <t>2025-11-12T07:24:50.014326</t>
+          <t>2025-11-13T06:53:10.102282</t>
         </is>
       </c>
     </row>
@@ -6983,7 +6983,7 @@
       </c>
       <c r="Z73" t="inlineStr">
         <is>
-          <t>2025-11-12T07:24:50.014326</t>
+          <t>2025-11-13T06:53:10.102282</t>
         </is>
       </c>
     </row>
@@ -7073,7 +7073,7 @@
       </c>
       <c r="Z74" t="inlineStr">
         <is>
-          <t>2025-11-12T07:24:50.024874</t>
+          <t>2025-11-13T06:53:10.102282</t>
         </is>
       </c>
     </row>
@@ -7159,7 +7159,7 @@
       <c r="Y75" t="inlineStr"/>
       <c r="Z75" t="inlineStr">
         <is>
-          <t>2025-11-12T07:24:50.360356</t>
+          <t>2025-11-13T06:53:10.338174</t>
         </is>
       </c>
     </row>
@@ -7249,7 +7249,7 @@
       </c>
       <c r="Z76" t="inlineStr">
         <is>
-          <t>2025-11-12T07:24:50.360356</t>
+          <t>2025-11-13T06:53:10.338174</t>
         </is>
       </c>
     </row>
@@ -7339,7 +7339,7 @@
       </c>
       <c r="Z77" t="inlineStr">
         <is>
-          <t>2025-11-12T07:24:50.360356</t>
+          <t>2025-11-13T06:53:10.338174</t>
         </is>
       </c>
     </row>
@@ -7429,7 +7429,7 @@
       </c>
       <c r="Z78" t="inlineStr">
         <is>
-          <t>2025-11-12T07:24:50.360356</t>
+          <t>2025-11-13T06:53:10.338174</t>
         </is>
       </c>
     </row>
@@ -7519,7 +7519,7 @@
       </c>
       <c r="Z79" t="inlineStr">
         <is>
-          <t>2025-11-12T07:24:50.360356</t>
+          <t>2025-11-13T06:53:10.338174</t>
         </is>
       </c>
     </row>
@@ -7605,7 +7605,7 @@
       <c r="Y80" t="inlineStr"/>
       <c r="Z80" t="inlineStr">
         <is>
-          <t>2025-11-12T07:24:50.361356</t>
+          <t>2025-11-13T06:53:10.338174</t>
         </is>
       </c>
     </row>
@@ -7695,7 +7695,7 @@
       </c>
       <c r="Z81" t="inlineStr">
         <is>
-          <t>2025-11-12T07:24:50.361356</t>
+          <t>2025-11-13T06:53:10.338174</t>
         </is>
       </c>
     </row>
@@ -7785,7 +7785,7 @@
       </c>
       <c r="Z82" t="inlineStr">
         <is>
-          <t>2025-11-12T07:24:50.362346</t>
+          <t>2025-11-13T06:53:10.338174</t>
         </is>
       </c>
     </row>
@@ -7875,7 +7875,7 @@
       </c>
       <c r="Z83" t="inlineStr">
         <is>
-          <t>2025-11-12T07:24:50.362346</t>
+          <t>2025-11-13T06:53:10.338174</t>
         </is>
       </c>
     </row>
@@ -7965,7 +7965,7 @@
       </c>
       <c r="Z84" t="inlineStr">
         <is>
-          <t>2025-11-12T07:24:50.363351</t>
+          <t>2025-11-13T06:53:10.338174</t>
         </is>
       </c>
     </row>
@@ -8055,7 +8055,7 @@
       </c>
       <c r="Z85" t="inlineStr">
         <is>
-          <t>2025-11-12T07:24:50.363351</t>
+          <t>2025-11-13T06:53:10.339174</t>
         </is>
       </c>
     </row>
@@ -8141,7 +8141,7 @@
       <c r="Y86" t="inlineStr"/>
       <c r="Z86" t="inlineStr">
         <is>
-          <t>2025-11-12T07:24:50.364352</t>
+          <t>2025-11-13T06:53:10.339174</t>
         </is>
       </c>
     </row>
@@ -8231,7 +8231,7 @@
       </c>
       <c r="Z87" t="inlineStr">
         <is>
-          <t>2025-11-12T07:24:50.364352</t>
+          <t>2025-11-13T06:53:10.339174</t>
         </is>
       </c>
     </row>
@@ -8321,7 +8321,7 @@
       </c>
       <c r="Z88" t="inlineStr">
         <is>
-          <t>2025-11-12T07:24:50.364352</t>
+          <t>2025-11-13T06:53:10.339174</t>
         </is>
       </c>
     </row>
@@ -8407,7 +8407,7 @@
       <c r="Y89" t="inlineStr"/>
       <c r="Z89" t="inlineStr">
         <is>
-          <t>2025-11-12T07:24:50.365350</t>
+          <t>2025-11-13T06:53:10.339174</t>
         </is>
       </c>
     </row>
@@ -8493,7 +8493,7 @@
       <c r="Y90" t="inlineStr"/>
       <c r="Z90" t="inlineStr">
         <is>
-          <t>2025-11-12T07:24:50.365350</t>
+          <t>2025-11-13T06:53:10.339174</t>
         </is>
       </c>
     </row>
@@ -8583,7 +8583,7 @@
       </c>
       <c r="Z91" t="inlineStr">
         <is>
-          <t>2025-11-12T07:24:50.365350</t>
+          <t>2025-11-13T06:53:10.339174</t>
         </is>
       </c>
     </row>
@@ -8673,7 +8673,7 @@
       </c>
       <c r="Z92" t="inlineStr">
         <is>
-          <t>2025-11-12T07:24:50.366349</t>
+          <t>2025-11-13T06:53:10.339174</t>
         </is>
       </c>
     </row>
@@ -8759,7 +8759,7 @@
       <c r="Y93" t="inlineStr"/>
       <c r="Z93" t="inlineStr">
         <is>
-          <t>2025-11-12T07:24:50.366349</t>
+          <t>2025-11-13T06:53:10.339174</t>
         </is>
       </c>
     </row>
@@ -8849,7 +8849,7 @@
       </c>
       <c r="Z94" t="inlineStr">
         <is>
-          <t>2025-11-12T07:24:50.366349</t>
+          <t>2025-11-13T06:53:10.339174</t>
         </is>
       </c>
     </row>
@@ -8939,7 +8939,7 @@
       </c>
       <c r="Z95" t="inlineStr">
         <is>
-          <t>2025-11-12T07:24:50.367348</t>
+          <t>2025-11-13T06:53:10.340173</t>
         </is>
       </c>
     </row>
@@ -9025,7 +9025,7 @@
       <c r="Y96" t="inlineStr"/>
       <c r="Z96" t="inlineStr">
         <is>
-          <t>2025-11-12T07:24:50.367348</t>
+          <t>2025-11-13T06:53:10.340173</t>
         </is>
       </c>
     </row>
@@ -9115,7 +9115,7 @@
       </c>
       <c r="Z97" t="inlineStr">
         <is>
-          <t>2025-11-12T07:24:50.367348</t>
+          <t>2025-11-13T06:53:10.340173</t>
         </is>
       </c>
     </row>
@@ -9201,7 +9201,7 @@
       <c r="Y98" t="inlineStr"/>
       <c r="Z98" t="inlineStr">
         <is>
-          <t>2025-11-12T07:24:50.367348</t>
+          <t>2025-11-13T06:53:10.340173</t>
         </is>
       </c>
     </row>
@@ -9291,7 +9291,7 @@
       </c>
       <c r="Z99" t="inlineStr">
         <is>
-          <t>2025-11-12T07:24:50.367348</t>
+          <t>2025-11-13T06:53:10.340173</t>
         </is>
       </c>
     </row>
@@ -9381,7 +9381,7 @@
       </c>
       <c r="Z100" t="inlineStr">
         <is>
-          <t>2025-11-12T07:24:50.368346</t>
+          <t>2025-11-13T06:53:10.340173</t>
         </is>
       </c>
     </row>
@@ -9471,7 +9471,7 @@
       </c>
       <c r="Z101" t="inlineStr">
         <is>
-          <t>2025-11-12T07:24:50.368346</t>
+          <t>2025-11-13T06:53:10.340173</t>
         </is>
       </c>
     </row>
@@ -9561,7 +9561,7 @@
       </c>
       <c r="Z102" t="inlineStr">
         <is>
-          <t>2025-11-12T07:24:50.368346</t>
+          <t>2025-11-13T06:53:10.340173</t>
         </is>
       </c>
     </row>
